--- a/biology/Zoologie/Gymnoscelis_rufifasciata/Gymnoscelis_rufifasciata.xlsx
+++ b/biology/Zoologie/Gymnoscelis_rufifasciata/Gymnoscelis_rufifasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnoscelis rufifasciata, la Fausse eupithécie ou Phalène de l'olivier, est une espèce de lépidoptères (papillons) de la famille des Geometridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit dans toute l'écozone paléarctique, le Proche-Orient et l'Afrique du Nord.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte a une envergure de 15 à 19 mm.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a deux, voire trois générations dans l'année ; dans les régions méridionales, il est présent toute l'année, souvent posé sur les murs des maisons. Il passe l'hiver sous forme de pupe.
 Il vole la nuit et est attiré par la lumière et les produits sucrés.
